--- a/data-raw/standard-category-mapping.xlsx
+++ b/data-raw/standard-category-mapping.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Functional Categories" sheetId="22" r:id="rId1"/>
-    <sheet name="Colors" sheetId="23" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Functional Categories'!$A$1:$B$1</definedName>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>DIRECT_ENGINEERING_LABOR</t>
   </si>
@@ -116,72 +115,26 @@
     <t>direct_or_overhead</t>
   </si>
   <si>
-    <t>hex</t>
-  </si>
-  <si>
-    <t>d_o_hex</t>
-  </si>
-  <si>
     <t>direct</t>
   </si>
   <si>
-    <t>#468699</t>
-  </si>
-  <si>
-    <t>#876f31</t>
-  </si>
-  <si>
-    <t>#469990</t>
-  </si>
-  <si>
-    <t>#e6beff</t>
-  </si>
-  <si>
-    <t>#bfef45</t>
-  </si>
-  <si>
-    <t>#3cb44b</t>
-  </si>
-  <si>
-    <t>#000075</t>
-  </si>
-  <si>
     <t>overhead</t>
-  </si>
-  <si>
-    <t>#4363d8</t>
-  </si>
-  <si>
-    <t>#3f517d</t>
-  </si>
-  <si>
-    <t>#a9a9a9</t>
-  </si>
-  <si>
-    <t>#aaffc3</t>
-  </si>
-  <si>
-    <t>#ffd8b1</t>
-  </si>
-  <si>
-    <t>#fabebe</t>
-  </si>
-  <si>
-    <t>#f58231</t>
-  </si>
-  <si>
-    <t>#808000</t>
-  </si>
-  <si>
-    <t>#9A6324</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -209,14 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +476,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,679 +495,376 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>42</v>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>42</v>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>42</v>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>42</v>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>42</v>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>42</v>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>34</v>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>34</v>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>34</v>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>34</v>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>42</v>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-raw/standard-category-mapping.xlsx
+++ b/data-raw/standard-category-mapping.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Functional Categories" sheetId="22" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Functional Categories'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Functional Categories'!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
   <si>
     <t>DIRECT_ENGINEERING_LABOR</t>
   </si>
@@ -109,9 +109,6 @@
     <t>detailed_standard_category_id</t>
   </si>
   <si>
-    <t>standard_category</t>
-  </si>
-  <si>
     <t>direct_or_overhead</t>
   </si>
   <si>
@@ -119,13 +116,49 @@
   </si>
   <si>
     <t>overhead</t>
+  </si>
+  <si>
+    <t>labor_or_material</t>
+  </si>
+  <si>
+    <t>functional_category</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>FCCM</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +167,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,10 +211,10 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -473,394 +520,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E21" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>33</v>
+      <c r="E27" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/standard-category-mapping.xlsx
+++ b/data-raw/standard-category-mapping.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20393"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C1EF3F-3EF4-4683-962C-8AD3CCDB9570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630" tabRatio="830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Categories" sheetId="22" r:id="rId1"/>
@@ -103,12 +104,6 @@
     <t>OTHER_MATERIAL</t>
   </si>
   <si>
-    <t>standard_category_id</t>
-  </si>
-  <si>
-    <t>detailed_standard_category_id</t>
-  </si>
-  <si>
     <t>direct_or_overhead</t>
   </si>
   <si>
@@ -152,12 +147,18 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>StandardCategoryID</t>
+  </si>
+  <si>
+    <t>DetailedStandardCategoryID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,6 +310,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -344,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,12 +554,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -536,20 +569,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -560,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -577,13 +610,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -594,13 +627,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -611,13 +644,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -628,13 +661,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -645,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -662,13 +695,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -679,13 +712,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -696,13 +729,13 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -713,13 +746,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -730,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -747,13 +780,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,13 +797,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -781,13 +814,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -798,13 +831,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -815,13 +848,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -832,13 +865,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -849,13 +882,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,13 +899,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -883,13 +916,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -900,13 +933,13 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -917,13 +950,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -934,13 +967,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -951,13 +984,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -968,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -985,13 +1018,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
